--- a/test/correlations.xlsx
+++ b/test/correlations.xlsx
@@ -64,6 +64,9 @@
     <t>b i</t>
   </si>
   <si>
+    <t>T x</t>
+  </si>
+  <si>
     <t>i x</t>
   </si>
   <si>
@@ -76,22 +79,19 @@
     <t>l o</t>
   </si>
   <si>
-    <t>^ h</t>
-  </si>
-  <si>
-    <t>^ b</t>
-  </si>
-  <si>
-    <t>^ l</t>
-  </si>
-  <si>
-    <t>^ i</t>
-  </si>
-  <si>
-    <t>^ o</t>
-  </si>
-  <si>
-    <t>^ x</t>
+    <t>T b</t>
+  </si>
+  <si>
+    <t>T h</t>
+  </si>
+  <si>
+    <t>T l</t>
+  </si>
+  <si>
+    <t>T i</t>
+  </si>
+  <si>
+    <t>T o</t>
   </si>
 </sst>
 </file>
@@ -673,16 +673,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="C13">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="D13">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="E13">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -690,16 +690,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="C14">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="D14">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="E14">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -707,16 +707,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="C15">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="D15">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="E15">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -724,10 +724,16 @@
         <v>19</v>
       </c>
       <c r="B16">
+        <v>0.11</v>
+      </c>
+      <c r="C16">
+        <v>0.34</v>
+      </c>
+      <c r="D16">
+        <v>0.31</v>
+      </c>
+      <c r="E16">
         <v>0.1</v>
-      </c>
-      <c r="C16">
-        <v>0.31</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -735,10 +741,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C17">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -746,10 +752,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C18">
-        <v>-0.03</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -757,10 +763,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="C19">
-        <v>-0.04</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -768,10 +774,10 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C20">
-        <v>-0.09</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -782,7 +788,7 @@
         <v>0.01</v>
       </c>
       <c r="C21">
-        <v>-0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -790,10 +796,10 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C22">
-        <v>-0.13</v>
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
